--- a/Documents/output.xlsx
+++ b/Documents/output.xlsx
@@ -1,40 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SCHEDULE" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,22 +59,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +405,1258 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.7109375" customWidth="1" style="1" min="1" max="4"/>
+    <col width="11.7109375" customWidth="1" style="1" min="5" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 2</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 3</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 4</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 5</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 6</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 7</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 8</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 9</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 10</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 11</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 12</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 13</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 14</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 15</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 16</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 17</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 18</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 19</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 20</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 21</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 22</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 23</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 24</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 25</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>PERIOD 26</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>DURATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>9:27:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>9:36:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>9:37:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>9:39:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>9:34:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>9:40:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>9:41:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>120429</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>120332</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>120359</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>120462</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Tea</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>120379</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>120343</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>667970</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>679910</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>641682</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>618495</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>9:41:41</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Documents/output.xlsx
+++ b/Documents/output.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>9:27:14</t>
+          <t>9:27:09</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>9:36:23</t>
+          <t>9:36:18</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>9:37:44</t>
+          <t>9:37:39</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>9:39:15</t>
+          <t>9:39:10</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>9:34:33</t>
+          <t>9:34:28</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>9:40:13</t>
+          <t>9:40:06</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>9:41:12</t>
+          <t>9:41:05</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>9:41:41</t>
+          <t>9:41:34</t>
         </is>
       </c>
     </row>
